--- a/data/Homeownership.xlsx
+++ b/data/Homeownership.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="17235" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
   </bookViews>
   <sheets>
     <sheet name="Homeownership" sheetId="1" r:id="rId1"/>
@@ -18,116 +23,25 @@
     <definedName name="B">#REF!</definedName>
     <definedName name="C_">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>White</t>
   </si>
   <si>
     <t>Hispanic</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>African American</t>
-  </si>
-  <si>
-    <t>Homeownership Rate by Race/Ethnicity, 1983-2013</t>
   </si>
   <si>
     <r>
@@ -152,7 +66,54 @@
     </r>
   </si>
   <si>
-    <t>Source: Urban Institute calculations from Current Population Survey 1983-2013.</t>
+    <t>Homeownership Rate by Race/Ethnicity, 1983-2016</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Note: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>White includes Hispanic. The values for white non-Hispanic was 72 percent in 2016.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Urban Institute calculations from Current Population Survey 1976-2017. 1976-2014 values from Census Historical Household Surveys Table HH-5. 2015-2016 values from Census Table Annual Statistics 2016 Table 22.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -163,7 +124,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +168,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -229,17 +197,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" applyAlignment="0"/>
@@ -254,17 +222,22 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="13" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="1"/>
     <cellStyle name="Excluded" xfId="2"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8"/>
@@ -278,6 +251,7 @@
     <cellStyle name="Normal 3 2" xfId="9"/>
     <cellStyle name="Normal 4" xfId="10"/>
     <cellStyle name="Normal 5" xfId="11"/>
+    <cellStyle name="Percent" xfId="14" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,6 +259,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -23751,12 +23728,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -23786,12 +23763,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -23995,482 +23972,635 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1976</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="6">
+        <v>0.67753758230836125</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.44238216050206969</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.42706919945725919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1977</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.67553134515630497</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.44122942386831276</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.42259006815968841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1978</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.67665162697582693</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.44540554093017426</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.42615012106537531</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1979</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.70193155759393189</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.48189933052318373</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.46004254026131874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1980</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0.70532459090523703</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.48602375960866528</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.47584147665580889</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1981</v>
+      </c>
+      <c r="B8" s="6">
+        <v>0.70593555209260905</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.47812817904374366</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.46646185355862774</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>1982</v>
+      </c>
+      <c r="B9" s="6">
+        <v>0.70162674171185391</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.47204553063274191</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.46532663316582917</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1983</v>
+      </c>
+      <c r="B10" s="6">
         <v>0.67617720204421849</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C10" s="6">
         <v>0.45345446388515032</v>
       </c>
-      <c r="D3" s="3">
-        <v>0.41213901125795399</v>
+      <c r="D10" s="6">
+        <v>0.41223990208078337</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1984</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B11" s="6">
         <v>0.67299935463052596</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C11" s="6">
         <v>0.45517540060632311</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.40439306358381505</v>
+      <c r="D11" s="6">
+        <v>0.40429958391123438</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>1985</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B12" s="6">
         <v>0.67253876380628719</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C12" s="6">
         <v>0.44145569620253167</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D12" s="6">
         <v>0.41101781691583045</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1986</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B13" s="6">
         <v>0.66622701629753445</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C13" s="6">
         <v>0.44513626620393998</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D13" s="6">
         <v>0.40571647803568001</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1987</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B14" s="6">
         <v>0.66840484446974791</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C14" s="6">
         <v>0.45404152388631325</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D14" s="6">
         <v>0.40568475452196384</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1988</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B15" s="6">
         <v>0.67156456689903021</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C15" s="6">
         <v>0.4244060475161987</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D15" s="6">
         <v>0.40224640224640223</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1989</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.67394494262243687</v>
+      <c r="B16" s="6">
+        <v>0.67395339503850304</v>
       </c>
-      <c r="C9" s="3">
-        <v>0.41819731111531905</v>
+      <c r="C16" s="6">
+        <v>0.4182369093835811</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D16" s="6">
         <v>0.41573604060913705</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1990</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B17" s="6">
         <v>0.67480009480683112</v>
       </c>
-      <c r="C10" s="3">
-        <v>0.42393896041964713</v>
+      <c r="C17" s="6">
+        <v>0.42389853137516686</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D17" s="6">
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1991</v>
       </c>
-      <c r="B11" s="3">
-        <v>0.67343057219429658</v>
+      <c r="B18" s="6">
+        <v>0.67343888943780261</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C18" s="6">
         <v>0.42414019304657485</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D18" s="6">
         <v>0.38954983922829584</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>11</v>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1992</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B19" s="6">
         <v>0.67483318028772576</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C19" s="6">
         <v>0.42253902373003699</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D19" s="6">
         <v>0.39927888383759208</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1993</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B20" s="6">
         <v>0.68120073584055163</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C20" s="6">
         <v>0.42234137622877571</v>
       </c>
-      <c r="D13" s="3">
-        <v>0.40048287309491476</v>
+      <c r="D20" s="6">
+        <v>0.40054331421672201</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1994</v>
       </c>
-      <c r="B14" s="3">
-        <v>0.67824197698693989</v>
+      <c r="B21" s="6">
+        <v>0.67825020937769309</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C21" s="6">
         <v>0.42469639216381527</v>
       </c>
-      <c r="D14" s="3">
-        <v>0.41559147086785275</v>
+      <c r="D21" s="6">
+        <v>0.41564792176039123</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1995</v>
       </c>
-      <c r="B15" s="3">
-        <v>0.68607289576765074</v>
+      <c r="B22" s="6">
+        <v>0.68606470258069907</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C22" s="6">
         <v>0.4193908193908194</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D22" s="6">
         <v>0.42378797672915319</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1996</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B23" s="6">
         <v>0.68963803528534751</v>
       </c>
-      <c r="C16" s="3">
-        <v>0.43927090532135454</v>
+      <c r="C23" s="6">
+        <v>0.43923296190722988</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D23" s="6">
         <v>0.41239450812444894</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1997</v>
       </c>
-      <c r="B17" s="3">
-        <v>0.69158241241476603</v>
+      <c r="B24" s="6">
+        <v>0.69159054303483469</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C24" s="6">
         <v>0.4550334461970435</v>
       </c>
-      <c r="D17" s="3">
-        <v>0.43081225680933855</v>
+      <c r="D24" s="6">
+        <v>0.4307598784194529</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1998</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B25" s="6">
         <v>0.69739623255057714</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C25" s="6">
         <v>0.4597562930896264</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D25" s="6">
         <v>0.44901047729918508</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1999</v>
       </c>
-      <c r="B19" s="3">
-        <v>0.70345017371263463</v>
+      <c r="B26" s="6">
+        <v>0.70345823969178556</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C26" s="6">
         <v>0.45496462357898082</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.45204723540448072</v>
+      <c r="D26" s="6">
+        <v>0.45209713024282561</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>19</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2000</v>
       </c>
-      <c r="B20" s="3">
-        <v>0.70807573856507355</v>
+      <c r="B27" s="6">
+        <v>0.70806766205472738</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C27" s="6">
         <v>0.4712428982800218</v>
       </c>
-      <c r="D20" s="3">
-        <v>0.45535522644344278</v>
+      <c r="D27" s="6">
+        <v>0.45530636334370639</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>20</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>2001</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B28" s="6">
         <v>0.71479506831056316</v>
       </c>
-      <c r="C21" s="3">
-        <v>0.47681214421252371</v>
+      <c r="C28" s="6">
+        <v>0.47684833763473511</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D28" s="6">
         <v>0.4558501096272673</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>21</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>2002</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B29" s="6">
         <v>0.71843364725083259</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C29" s="6">
         <v>0.48171235448742022</v>
       </c>
-      <c r="D22" s="3">
-        <v>0.47475709658982662</v>
+      <c r="D29" s="6">
+        <v>0.47471187732164966</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>22</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2003</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B30" s="6">
         <v>0.72093403895466202</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C30" s="6">
         <v>0.47694021537318976</v>
       </c>
-      <c r="D23" s="3">
-        <v>0.47486772486772488</v>
+      <c r="D30" s="6">
+        <v>0.47490960402151866</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>23</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2004</v>
       </c>
-      <c r="B24" s="3">
-        <v>0.72510085797240131</v>
+      <c r="B31" s="6">
+        <v>0.72509297318457622</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C31" s="6">
         <v>0.49064494827206689</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D31" s="6">
         <v>0.47374273007184398</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>24</v>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2005</v>
       </c>
-      <c r="B25" s="3">
-        <v>0.73039115408219291</v>
+      <c r="B32" s="6">
+        <v>0.73038329026701121</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C32" s="6">
         <v>0.49127380693750455</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D32" s="6">
         <v>0.49293808507144032</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>25</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2006</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B33" s="6">
         <v>0.72385348548959272</v>
       </c>
-      <c r="C26" s="3">
-        <v>0.47282336975930289</v>
+      <c r="C33" s="6">
+        <v>0.47278960148550209</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D33" s="6">
         <v>0.4874990015176931</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>26</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2007</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B34" s="6">
         <v>0.72071168364922655</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C34" s="6">
         <v>0.4816775811620454</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D34" s="6">
         <v>0.49302397286672317</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>27</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2008</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B35" s="6">
         <v>0.71856337791235592</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C35" s="6">
         <v>0.47144526149405541</v>
       </c>
-      <c r="D28" s="3">
-        <v>0.49122807017543857</v>
+      <c r="D35" s="6">
+        <v>0.49119124372141842</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>28</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2009</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B36" s="6">
         <v>0.71206858557981889</v>
       </c>
-      <c r="C29" s="3">
-        <v>0.46416335480334386</v>
+      <c r="C36" s="6">
+        <v>0.46413155190133609</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D36" s="6">
         <v>0.47806331471135938</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2010</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B37" s="6">
         <v>0.7101446239881033</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C37" s="6">
         <v>0.45994568906992533</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D37" s="6">
         <v>0.47563543389983454</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2011</v>
       </c>
-      <c r="B31" s="3">
-        <v>0.70601734074035616</v>
+      <c r="B38" s="6">
+        <v>0.70601000976055495</v>
       </c>
-      <c r="C31" s="3">
-        <v>0.44327263199266342</v>
+      <c r="C38" s="6">
+        <v>0.44330167048804453</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D38" s="6">
+        <v>0.46534943285766556</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B39" s="6">
+        <v>0.69871292438430754</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.43284348328306488</v>
+      </c>
+      <c r="D39" s="6">
         <v>0.46117076550051955</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2013</v>
       </c>
-      <c r="B32" s="3">
-        <v>0.69871292438430754</v>
+      <c r="B40" s="6">
+        <v>0.69441686709994366</v>
       </c>
-      <c r="C32" s="3">
-        <v>0.43284348328306488</v>
+      <c r="C40" s="6">
+        <v>0.42811239919354838</v>
       </c>
-      <c r="D32" s="3">
-        <v>0.45956620698888739</v>
+      <c r="D40" s="6">
+        <v>0.45953544413950065</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2014</v>
       </c>
-      <c r="B33" s="3">
-        <v>0.69441686709994366</v>
+      <c r="B41" s="6">
+        <v>0.69077632276751111</v>
       </c>
-      <c r="C33" s="3">
-        <v>0.42811239919354838</v>
+      <c r="C41" s="6">
+        <v>0.42753984063745021</v>
       </c>
-      <c r="D33" s="3">
-        <v>0.45361816782140107</v>
+      <c r="D41" s="6">
+        <v>0.45358906921547243</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>36</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.42299999999999999</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.41600000000000004</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="4" t="s">
-        <v>35</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A35" r:id="rId1" display="http://urbn.is/wealthcharts"/>
+    <hyperlink ref="A47" r:id="rId1" display="http://urbn.is/wealthcharts"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/data/Homeownership.xlsx
+++ b/data/Homeownership.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bchartof/Projects/wealth-inequality-charts/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\LHP\SMcKerna\Nine Charts 2017\Nine Charts Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1020" windowWidth="17240" windowHeight="8760"/>
+    <workbookView xWindow="240" yWindow="1020" windowWidth="26160" windowHeight="17640"/>
   </bookViews>
   <sheets>
     <sheet name="Homeownership" sheetId="1" r:id="rId1"/>
@@ -66,10 +66,10 @@
     </r>
   </si>
   <si>
-    <t>Homeownership Rate by Race/Ethnicity, 1983-2016</t>
+    <t>Black</t>
   </si>
   <si>
-    <t>Black</t>
+    <t>Homeownership Rate by Race/Ethnicity, 1983–2016</t>
   </si>
   <si>
     <r>
@@ -78,6 +78,30 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sources:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Urban Institute calculations from Current Population Survey 1976–2017. 1976–2014 values from Census Historical Household Surveys, Table HH-5. 2015–16 values from Census Annual Statistics 2016, Table 22.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Note: </t>
@@ -90,41 +114,19 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>White includes Hispanic. The values for white non-Hispanic was 72 percent in 2016.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Source:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Urban Institute calculations from Current Population Survey 1976-2017. 1976-2014 values from Census Historical Household Surveys Table HH-5. 2015-2016 values from Census Table Annual Statistics 2016 Table 22.</t>
+      <t>White homeownership rate includes Hispanic whites. The 2016 homeownership rate for non-Hispanic whites is 72 percent.</t>
     </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +175,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -224,7 +227,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -236,6 +239,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="14" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Comma 2" xfId="1"/>
@@ -23974,34 +23978,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
+    <col min="2" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1976</v>
       </c>
@@ -24015,7 +24017,7 @@
         <v>0.42706919945725919</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>1977</v>
       </c>
@@ -24029,7 +24031,7 @@
         <v>0.42259006815968841</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1978</v>
       </c>
@@ -24043,7 +24045,7 @@
         <v>0.42615012106537531</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>1979</v>
       </c>
@@ -24057,7 +24059,7 @@
         <v>0.46004254026131874</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>1980</v>
       </c>
@@ -24071,7 +24073,7 @@
         <v>0.47584147665580889</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>1981</v>
       </c>
@@ -24085,7 +24087,7 @@
         <v>0.46646185355862774</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>1982</v>
       </c>
@@ -24099,7 +24101,7 @@
         <v>0.46532663316582917</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>1983</v>
       </c>
@@ -24113,7 +24115,7 @@
         <v>0.41223990208078337</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>1984</v>
       </c>
@@ -24127,7 +24129,7 @@
         <v>0.40429958391123438</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>1985</v>
       </c>
@@ -24141,7 +24143,7 @@
         <v>0.41101781691583045</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>1986</v>
       </c>
@@ -24155,7 +24157,7 @@
         <v>0.40571647803568001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>1987</v>
       </c>
@@ -24169,7 +24171,7 @@
         <v>0.40568475452196384</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1988</v>
       </c>
@@ -24183,7 +24185,7 @@
         <v>0.40224640224640223</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>1989</v>
       </c>
@@ -24197,8 +24199,8 @@
         <v>0.41573604060913705</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+    <row r="17" spans="1:4">
+      <c r="A17" s="7">
         <v>1990</v>
       </c>
       <c r="B17" s="6">
@@ -24211,8 +24213,8 @@
         <v>0.41176470588235292</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="7">
         <v>1991</v>
       </c>
       <c r="B18" s="6">
@@ -24225,8 +24227,8 @@
         <v>0.38954983922829584</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+    <row r="19" spans="1:4">
+      <c r="A19" s="7">
         <v>1992</v>
       </c>
       <c r="B19" s="6">
@@ -24239,8 +24241,8 @@
         <v>0.39927888383759208</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+    <row r="20" spans="1:4">
+      <c r="A20" s="7">
         <v>1993</v>
       </c>
       <c r="B20" s="6">
@@ -24253,8 +24255,8 @@
         <v>0.40054331421672201</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+    <row r="21" spans="1:4">
+      <c r="A21" s="7">
         <v>1994</v>
       </c>
       <c r="B21" s="6">
@@ -24267,8 +24269,8 @@
         <v>0.41564792176039123</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+    <row r="22" spans="1:4">
+      <c r="A22" s="7">
         <v>1995</v>
       </c>
       <c r="B22" s="6">
@@ -24281,8 +24283,8 @@
         <v>0.42378797672915319</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+    <row r="23" spans="1:4">
+      <c r="A23" s="7">
         <v>1996</v>
       </c>
       <c r="B23" s="6">
@@ -24295,8 +24297,8 @@
         <v>0.41239450812444894</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+    <row r="24" spans="1:4">
+      <c r="A24" s="7">
         <v>1997</v>
       </c>
       <c r="B24" s="6">
@@ -24309,8 +24311,8 @@
         <v>0.4307598784194529</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+    <row r="25" spans="1:4">
+      <c r="A25" s="7">
         <v>1998</v>
       </c>
       <c r="B25" s="6">
@@ -24323,8 +24325,8 @@
         <v>0.44901047729918508</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+    <row r="26" spans="1:4">
+      <c r="A26" s="7">
         <v>1999</v>
       </c>
       <c r="B26" s="6">
@@ -24337,8 +24339,8 @@
         <v>0.45209713024282561</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
+    <row r="27" spans="1:4">
+      <c r="A27" s="7">
         <v>2000</v>
       </c>
       <c r="B27" s="6">
@@ -24351,8 +24353,8 @@
         <v>0.45530636334370639</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
+    <row r="28" spans="1:4">
+      <c r="A28" s="7">
         <v>2001</v>
       </c>
       <c r="B28" s="6">
@@ -24365,8 +24367,8 @@
         <v>0.4558501096272673</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
         <v>2002</v>
       </c>
       <c r="B29" s="6">
@@ -24379,8 +24381,8 @@
         <v>0.47471187732164966</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
         <v>2003</v>
       </c>
       <c r="B30" s="6">
@@ -24393,8 +24395,8 @@
         <v>0.47490960402151866</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
         <v>2004</v>
       </c>
       <c r="B31" s="6">
@@ -24407,8 +24409,8 @@
         <v>0.47374273007184398</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
         <v>2005</v>
       </c>
       <c r="B32" s="6">
@@ -24421,8 +24423,8 @@
         <v>0.49293808507144032</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
+    <row r="33" spans="1:5">
+      <c r="A33" s="7">
         <v>2006</v>
       </c>
       <c r="B33" s="6">
@@ -24435,8 +24437,8 @@
         <v>0.4874990015176931</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
+    <row r="34" spans="1:5">
+      <c r="A34" s="7">
         <v>2007</v>
       </c>
       <c r="B34" s="6">
@@ -24449,8 +24451,8 @@
         <v>0.49302397286672317</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
+    <row r="35" spans="1:5">
+      <c r="A35" s="7">
         <v>2008</v>
       </c>
       <c r="B35" s="6">
@@ -24463,8 +24465,8 @@
         <v>0.49119124372141842</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
+    <row r="36" spans="1:5">
+      <c r="A36" s="7">
         <v>2009</v>
       </c>
       <c r="B36" s="6">
@@ -24477,8 +24479,8 @@
         <v>0.47806331471135938</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
+    <row r="37" spans="1:5">
+      <c r="A37" s="7">
         <v>2010</v>
       </c>
       <c r="B37" s="6">
@@ -24491,8 +24493,8 @@
         <v>0.47563543389983454</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
+    <row r="38" spans="1:5">
+      <c r="A38" s="7">
         <v>2011</v>
       </c>
       <c r="B38" s="6">
@@ -24505,8 +24507,8 @@
         <v>0.46534943285766556</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
+    <row r="39" spans="1:5">
+      <c r="A39" s="7">
         <v>2012</v>
       </c>
       <c r="B39" s="6">
@@ -24519,8 +24521,8 @@
         <v>0.46117076550051955</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
+    <row r="40" spans="1:5">
+      <c r="A40" s="7">
         <v>2013</v>
       </c>
       <c r="B40" s="6">
@@ -24533,8 +24535,8 @@
         <v>0.45953544413950065</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
+    <row r="41" spans="1:5">
+      <c r="A41" s="7">
         <v>2014</v>
       </c>
       <c r="B41" s="6">
@@ -24547,8 +24549,8 @@
         <v>0.45358906921547243</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+    <row r="42" spans="1:5">
+      <c r="A42" s="7">
         <v>2015</v>
       </c>
       <c r="B42" s="6">
@@ -24562,8 +24564,8 @@
       </c>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
+    <row r="43" spans="1:5">
+      <c r="A43" s="7">
         <v>2016</v>
       </c>
       <c r="B43" s="6">
@@ -24577,23 +24579,23 @@
       </c>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
         <v>2</v>
       </c>
